--- a/Bin_data/Burley/Burley59-2.xlsx
+++ b/Bin_data/Burley/Burley59-2.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="7" spans="1:56">
       <c r="A7" s="1">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.05933733839999999</v>
+        <v>0</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="8" spans="1:56">
       <c r="A8" s="1">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.08263933944</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>0.05933733839999999</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -1737,12 +1737,12 @@
         <v>0</v>
       </c>
       <c r="BD8">
-        <v>0.08475012936000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:56">
       <c r="A9" s="1">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.05266386552</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.11047614216</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="10" spans="1:56">
       <c r="A10" s="1">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.060320928</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.08345575199999999</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.04095693648</v>
+        <v>0.08263933944</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2077,12 +2077,12 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>0.08475012936000001</v>
       </c>
     </row>
     <row r="11" spans="1:56">
       <c r="A11" s="1">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.62858804916</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.58219077792</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.58386437388</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2151,34 +2151,34 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1.0817920044</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1.32029621832</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.65005475528</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>2.03171119704</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>1.54004451816</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>1.15565958336</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.05266386552</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.11047614216</v>
       </c>
       <c r="AF11">
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.06550197792</v>
+        <v>0</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.31557166764</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0.26213503704</v>
+        <v>0</v>
       </c>
       <c r="BA11">
-        <v>0.22791541272</v>
+        <v>0</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="12" spans="1:56">
       <c r="A12" s="1">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.060320928</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.08345575199999999</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2339,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0.32575657752</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>0.37127343096</v>
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="AK12">
-        <v>0.13063535868</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>0.04095693648</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>0.12179300988</v>
+        <v>0</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="13" spans="1:56">
       <c r="A13" s="1">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.13994128908</v>
+        <v>0.62858804916</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.58219077792</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.58386437388</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2491,22 +2491,22 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1.0817920044</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1.32029621832</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.65005475528</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>2.03171119704</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.54004451816</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1.15565958336</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>0.06550197792</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>0.31557166764</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.04817547732</v>
+        <v>0</v>
       </c>
       <c r="AT13">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>0.26213503704</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>0.22791541272</v>
       </c>
       <c r="BB13">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="14" spans="1:56">
       <c r="A14" s="1">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>0.32575657752</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>0.37127343096</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>0.13063535868</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2739,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>0.12179300988</v>
       </c>
       <c r="AY14">
-        <v>0.0449206698</v>
+        <v>0</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="1">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0.2421613638</v>
+        <v>0</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0.33951388704</v>
+        <v>0</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -2879,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>0.36286501224</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>0.30420468</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.26256271596</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>0.3184598142</v>
+        <v>0</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -2906,19 +2906,19 @@
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>0.4487305587600001</v>
+        <v>0</v>
       </c>
       <c r="AX15">
-        <v>0.55802661468</v>
+        <v>0</v>
       </c>
       <c r="AY15">
         <v>0</v>
       </c>
       <c r="AZ15">
-        <v>0.6414158720400001</v>
+        <v>0</v>
       </c>
       <c r="BA15">
-        <v>0.54526539708</v>
+        <v>0</v>
       </c>
       <c r="BB15">
         <v>0</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="16" spans="1:56">
       <c r="A16" s="1">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2971,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.13994128908</v>
       </c>
       <c r="O16">
-        <v>0.03797961408</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>0.04817547732</v>
       </c>
       <c r="AT16">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="17" spans="1:56">
       <c r="A17" s="1">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.0919755852</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0.1396384674</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -3249,19 +3249,19 @@
         <v>0</v>
       </c>
       <c r="AX17">
-        <v>0.10183233684</v>
+        <v>0</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>0.0449206698</v>
       </c>
       <c r="AZ17">
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0.2766146598</v>
+        <v>0</v>
       </c>
       <c r="BB17">
-        <v>0.21639253332</v>
+        <v>0</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="18" spans="1:56">
       <c r="A18" s="1">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.11967276024</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>0.21623630964</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3332,13 +3332,13 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.2874770184</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0.2584583592</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.31791198024</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>0.2421613638</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>0.33951388704</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3389,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>0.36286501224</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>0.30420468</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>0.26256271596</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.3184598142</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -3416,19 +3416,19 @@
         <v>0</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>0.4487305587600001</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>0.55802661468</v>
       </c>
       <c r="AY18">
-        <v>0.57108141552</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
-        <v>0</v>
+        <v>0.6414158720400001</v>
       </c>
       <c r="BA18">
-        <v>0.62383335048</v>
+        <v>0.54526539708</v>
       </c>
       <c r="BB18">
         <v>0</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.17203961268</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07678692600000001</v>
+        <v>0.03797961408</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.08347893108000001</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>0.72</v>
+        <v>0.57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.13046027088</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.41885062248</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3651,46 +3651,46 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.0887100456</v>
+        <v>0.0919755852</v>
       </c>
       <c r="O20">
-        <v>0.68099274048</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.22663901436</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.11071069896</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.8316947100000001</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0.13703660184</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.14013031752</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0.25040548212</v>
+        <v>0.1396384674</v>
       </c>
       <c r="V20">
-        <v>0.2109608838</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0.22449486648</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>0.16615483704</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.19051538628</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>0.57067874124</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.56826125724</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.07198902240000001</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>0.10183233684</v>
       </c>
       <c r="AY20">
         <v>0</v>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>0.2766146598</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>0.21639253332</v>
       </c>
       <c r="BC20">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.11967276024</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.19922767776</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3830,25 +3830,25 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.13900239804</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>0.6521815866</v>
+        <v>0.21623630964</v>
       </c>
       <c r="S21">
-        <v>0.23287518264</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.26485357248</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>0.24361561596</v>
+        <v>0.2874770184</v>
       </c>
       <c r="V21">
-        <v>0.20150536812</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.1400165796</v>
+        <v>0.2584583592</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -3860,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>0.31791198024</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.19388288064</v>
+        <v>0</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3932,13 +3932,13 @@
         <v>0</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>0.57108141552</v>
       </c>
       <c r="AZ21">
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>0.62383335048</v>
       </c>
       <c r="BB21">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.03661758036000001</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.84</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0.10132665672</v>
+        <v>0</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4331,16 +4331,16 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.17203961268</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.07678692600000001</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.08347893108000001</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0.13343427408</v>
+        <v>0</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="AU24">
-        <v>0.045290484</v>
+        <v>0</v>
       </c>
       <c r="AV24">
         <v>0</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.13046027088</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.41885062248</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -4501,46 +4501,46 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.0887100456</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.68099274048</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.22663901436</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.11071069896</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.8316947100000001</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.13703660184</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.14013031752</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.25040548212</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>0.2109608838</v>
       </c>
       <c r="W25">
-        <v>0.6451913514000001</v>
+        <v>0.22449486648</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>0.16615483704</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>0.19051538628</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.57067874124</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>0.56826125724</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>0.07198902240000001</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -4627,18 +4627,18 @@
         <v>0</v>
       </c>
       <c r="BD25">
-        <v>0.55521580548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.9299999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.25348442736</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.01809909972</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.19922767776</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -4680,25 +4680,25 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.13900239804</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.6521815866</v>
       </c>
       <c r="S26">
-        <v>0.01470300492</v>
+        <v>0.23287518264</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.26485357248</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.24361561596</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>0.20150536812</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.1400165796</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.07735832628</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.10991409096</v>
+        <v>0.19388288064</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -4743,28 +4743,28 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0.16229648832</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>0.10758240828</v>
+        <v>0</v>
       </c>
       <c r="AN26">
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>0.37544986968</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>0.4272503559600001</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>0.17786193204</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.28549401768</v>
+        <v>0</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -4773,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="AV26">
-        <v>0.4747552995600001</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>0.431559618</v>
+        <v>0</v>
       </c>
       <c r="AX26">
-        <v>0.43538090232</v>
+        <v>0</v>
       </c>
       <c r="AY26">
         <v>0</v>
@@ -4788,10 +4788,10 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0.32075150052</v>
+        <v>0</v>
       </c>
       <c r="BB26">
-        <v>0.42276285288</v>
+        <v>0</v>
       </c>
       <c r="BC26">
         <v>0</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4811,160 +4811,160 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.05504151912</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.23088310944</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.19121003952</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.23613325404</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0.38292039312</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.46213420752</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0.5320918242</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.2691979074</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.49598899644</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>0.64769380692</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>0.44217845796</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>0.5683901528400001</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0.49976956524</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0.5022580248</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0.36489249024</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0.38259074124</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0.24794235912</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0.83147165976</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0.2433615312</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>1.12345510068</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.47022431496</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.65426482716</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.94520493288</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>1.05615383976</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.73186545504</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>1.09918411452</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>0.97129495128</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.34383365988</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.46613301372</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.66748497948</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>0.6671623532400001</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0.68704054416</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>0.8811947694</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>0.79845856464</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>0.61742281356</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>0.94434636648</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>0.58430455512</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.6417713030400001</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0.44311989372</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>0.56578867452</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.3694515774</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>1.05036620604</v>
+        <v>0</v>
       </c>
       <c r="AU27">
-        <v>1.1375647986</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>0.58387427616</v>
+        <v>0</v>
       </c>
       <c r="AW27">
-        <v>0.74129402988</v>
+        <v>0</v>
       </c>
       <c r="AX27">
-        <v>0.43444616028</v>
+        <v>0</v>
       </c>
       <c r="AY27">
-        <v>0.7557878145600001</v>
+        <v>0</v>
       </c>
       <c r="AZ27">
-        <v>0.72567547896</v>
+        <v>0</v>
       </c>
       <c r="BA27">
-        <v>0.41247737124</v>
+        <v>0</v>
       </c>
       <c r="BB27">
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>1.57314081456</v>
+        <v>0</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -4972,171 +4972,1361 @@
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0.03661758036000001</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56">
+      <c r="A29" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0.10132665672</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56">
+      <c r="A30" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0.13343427408</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0.045290484</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56">
+      <c r="A31" s="1">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.6451913514000001</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0.55521580548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56">
+      <c r="A32" s="1">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.25348442736</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.01809909972</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0.01470300492</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0.07735832628</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0.10991409096</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0.16229648832</v>
+      </c>
+      <c r="AM32">
+        <v>0.10758240828</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0.37544986968</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0.4272503559600001</v>
+      </c>
+      <c r="AR32">
+        <v>0.17786193204</v>
+      </c>
+      <c r="AS32">
+        <v>0.28549401768</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0.4747552995600001</v>
+      </c>
+      <c r="AW32">
+        <v>0.431559618</v>
+      </c>
+      <c r="AX32">
+        <v>0.43538090232</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0.32075150052</v>
+      </c>
+      <c r="BB32">
+        <v>0.42276285288</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56">
+      <c r="A33" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.05504151912</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0.23088310944</v>
+      </c>
+      <c r="G33">
+        <v>0.19121003952</v>
+      </c>
+      <c r="H33">
+        <v>0.23613325404</v>
+      </c>
+      <c r="I33">
+        <v>0.38292039312</v>
+      </c>
+      <c r="J33">
+        <v>0.46213420752</v>
+      </c>
+      <c r="K33">
+        <v>0.5320918242</v>
+      </c>
+      <c r="L33">
+        <v>0.2691979074</v>
+      </c>
+      <c r="M33">
+        <v>0.49598899644</v>
+      </c>
+      <c r="N33">
+        <v>0.64769380692</v>
+      </c>
+      <c r="O33">
+        <v>0.44217845796</v>
+      </c>
+      <c r="P33">
+        <v>0.5683901528400001</v>
+      </c>
+      <c r="Q33">
+        <v>0.49976956524</v>
+      </c>
+      <c r="R33">
+        <v>0.5022580248</v>
+      </c>
+      <c r="S33">
+        <v>0.36489249024</v>
+      </c>
+      <c r="T33">
+        <v>0.38259074124</v>
+      </c>
+      <c r="U33">
+        <v>0.24794235912</v>
+      </c>
+      <c r="V33">
+        <v>0.83147165976</v>
+      </c>
+      <c r="W33">
+        <v>0.2433615312</v>
+      </c>
+      <c r="X33">
+        <v>1.12345510068</v>
+      </c>
+      <c r="Y33">
+        <v>0.47022431496</v>
+      </c>
+      <c r="Z33">
+        <v>0.65426482716</v>
+      </c>
+      <c r="AA33">
+        <v>0.94520493288</v>
+      </c>
+      <c r="AB33">
+        <v>1.05615383976</v>
+      </c>
+      <c r="AC33">
+        <v>0.73186545504</v>
+      </c>
+      <c r="AD33">
+        <v>1.09918411452</v>
+      </c>
+      <c r="AE33">
+        <v>0.97129495128</v>
+      </c>
+      <c r="AF33">
+        <v>0.34383365988</v>
+      </c>
+      <c r="AG33">
+        <v>0.46613301372</v>
+      </c>
+      <c r="AH33">
+        <v>0.66748497948</v>
+      </c>
+      <c r="AI33">
+        <v>0.6671623532400001</v>
+      </c>
+      <c r="AJ33">
+        <v>0.68704054416</v>
+      </c>
+      <c r="AK33">
+        <v>0.8811947694</v>
+      </c>
+      <c r="AL33">
+        <v>0.79845856464</v>
+      </c>
+      <c r="AM33">
+        <v>0.61742281356</v>
+      </c>
+      <c r="AN33">
+        <v>0.94434636648</v>
+      </c>
+      <c r="AO33">
+        <v>0.58430455512</v>
+      </c>
+      <c r="AP33">
+        <v>0.6417713030400001</v>
+      </c>
+      <c r="AQ33">
+        <v>0.44311989372</v>
+      </c>
+      <c r="AR33">
+        <v>0.56578867452</v>
+      </c>
+      <c r="AS33">
+        <v>0.3694515774</v>
+      </c>
+      <c r="AT33">
+        <v>1.05036620604</v>
+      </c>
+      <c r="AU33">
+        <v>1.1375647986</v>
+      </c>
+      <c r="AV33">
+        <v>0.58387427616</v>
+      </c>
+      <c r="AW33">
+        <v>0.74129402988</v>
+      </c>
+      <c r="AX33">
+        <v>0.43444616028</v>
+      </c>
+      <c r="AY33">
+        <v>0.7557878145600001</v>
+      </c>
+      <c r="AZ33">
+        <v>0.72567547896</v>
+      </c>
+      <c r="BA33">
+        <v>0.41247737124</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>1.57314081456</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
+      <c r="A34" s="1">
         <v>0.99</v>
       </c>
-      <c r="B28">
+      <c r="B34">
         <v>0.0993845928</v>
       </c>
-      <c r="C28">
+      <c r="C34">
         <v>1.16640178692</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>1.07703238224</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>0.12278462088</v>
       </c>
-      <c r="M28">
+      <c r="M34">
         <v>0.03645471828</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
         <v>0.18157080612</v>
       </c>
-      <c r="X28">
+      <c r="X34">
         <v>0.2956486122</v>
       </c>
-      <c r="Y28">
+      <c r="Y34">
         <v>0.16631941404</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
-      </c>
-      <c r="AW28">
-        <v>0</v>
-      </c>
-      <c r="AX28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
         <v>0</v>
       </c>
     </row>
